--- a/artfynd/A 38971-2024 artfynd.xlsx
+++ b/artfynd/A 38971-2024 artfynd.xlsx
@@ -939,7 +939,7 @@
         <v>129805055</v>
       </c>
       <c r="B4" t="n">
-        <v>57712</v>
+        <v>57716</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
